--- a/DRAFT-TABLES_FIGURES_4-17-2021/_Main Table 2 DMRs-Combp-AD_vs_CN_annotated.xlsx
+++ b/DRAFT-TABLES_FIGURES_4-17-2021/_Main Table 2 DMRs-Combp-AD_vs_CN_annotated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiagosilva/TBL Dropbox/Tiago Silva/AD-meta-analysis-blood-samples/DRAFT-TABLES_FIGURES_4-17-2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxw391\TBL Dropbox\Lily Wang\AD-meta-analysis-blood-samples\DRAFT-TABLES_FIGURES_4-17-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC248110-8D1B-2F4A-8FF3-8DF8020FE4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4A1AE3-D998-49F3-9FC9-8942B59808B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AD_vs_CN_output_annotated" sheetId="1" r:id="rId1"/>
@@ -680,7 +680,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -703,7 +703,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -763,6 +786,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -777,6 +801,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1230,26 +1255,28 @@
   <dimension ref="B1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.83203125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="29" style="1" customWidth="1"/>
-    <col min="9" max="9" width="113.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="16"/>
+    <col min="9" max="9" width="39.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1268,14 +1295,14 @@
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1294,38 +1321,38 @@
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="12">
         <v>9</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="13">
         <v>1.1079999999999999E-10</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="13">
         <v>4.2189999999999999E-7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1344,12 +1371,12 @@
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1368,14 +1395,14 @@
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1394,12 +1421,12 @@
       <c r="G8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
@@ -1418,12 +1445,12 @@
       <c r="G9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -1442,14 +1469,14 @@
       <c r="G10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1468,12 +1495,12 @@
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1492,10 +1519,10 @@
       <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="10"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:G12">
